--- a/data/train_test_split/y_test.xlsx
+++ b/data/train_test_split/y_test.xlsx
@@ -447,117 +447,117 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17600</v>
+        <v>34788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45100</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15000</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12661.99</v>
+        <v>23123.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35472.85</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46384</v>
+        <v>21780</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15000</v>
+        <v>64518.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17600</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12661.99</v>
+        <v>31382.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23684</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29295.65</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>35000</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>34097.04</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21780</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>58500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8049.84</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="26">
@@ -567,82 +567,82 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>39571.35</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>35000</v>
+        <v>54015.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20000</v>
+        <v>50336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16500</v>
+        <v>29136.72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18150</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12661.64</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17600</v>
+        <v>33211.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15000</v>
+        <v>65018.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15000</v>
+        <v>77797.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40000</v>
+        <v>78020.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25000</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>52000</v>
+        <v>50955</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>23123.1</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="43">
@@ -652,17 +652,17 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>31460</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>58423</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15972</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="47">
@@ -677,417 +677,417 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20763.6</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15000</v>
+        <v>28990</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>57216.24</v>
+        <v>61303.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47954.37</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>31382.26</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>41843.02</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>69662.63</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>25000</v>
+        <v>80608.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58519.46</v>
+        <v>12661.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15000</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>39325</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>53613.17</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>12661.64</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>15000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>39325</v>
+        <v>28350</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>55574</v>
+        <v>28912.57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>30250</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>26000</v>
+        <v>35077.07</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>41843.02</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16500</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>25833</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>16500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46956</v>
+        <v>23528.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>31500</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15000</v>
+        <v>61099.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>47240.04</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39325</v>
+        <v>51978.91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>58500</v>
+        <v>26880</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>26000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30250</v>
+        <v>18327.46</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>28350</v>
+        <v>15416.83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>29136.72</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>17600</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>57668.11</v>
+        <v>21398.62</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130000</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>42000</v>
+        <v>25105.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>12661.99</v>
+        <v>27829.49</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>15000</v>
+        <v>124895.55</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>26250</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43647.8</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>40000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>18192.26</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18000</v>
+        <v>41843.02</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>52000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>72220.45</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>34292.44</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>21780</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>58500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15000</v>
+        <v>56515.26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>39525.57</v>
+        <v>50014.18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11000</v>
+        <v>23123.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>72020.42999999999</v>
+        <v>50336</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17600</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>60030.01</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>40580.1</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>66000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>57216.2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43944.21</v>
+        <v>22869</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>69663.10000000001</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="132">
@@ -1097,67 +1097,67 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>58500</v>
+        <v>25105.8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>70000</v>
+        <v>46384</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>16722.81</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>38000</v>
+        <v>24344.92</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>175000</v>
+        <v>58352.01</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>69662.63</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>48448.4</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>16500</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>68460</v>
+        <v>20763.6</v>
       </c>
     </row>
     <row r="146">
@@ -1167,37 +1167,37 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>15000</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>30500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>146075.99</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>19965</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>58500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>15000</v>
+        <v>63059.41</v>
       </c>
     </row>
     <row r="154">
@@ -1207,7 +1207,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>17600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="156">
@@ -1217,72 +1217,72 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15000</v>
+        <v>25667.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>38000</v>
+        <v>33422.03</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15000</v>
+        <v>64442.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>46956</v>
+        <v>22880</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>30500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>22500</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15416.83</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15000</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>47000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>25000</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>15000</v>
+        <v>61303.11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>25000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="171">
@@ -1292,32 +1292,32 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>21843.08</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>27829.49</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>25000</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16500</v>
+        <v>83658.37</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>25000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>30000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="178">
@@ -1327,7 +1327,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>15000</v>
+        <v>47292.11</v>
       </c>
     </row>
     <row r="180">
@@ -1337,112 +1337,112 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>57200</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>38000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>30500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>37708</v>
+        <v>79572.09000000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>26215.34</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>36300</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>15000</v>
+        <v>21543.26</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>64973.63</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>71896.66</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>36385</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>69662.63</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>24344.92</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>17600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>46956</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>65018.43</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="203">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="205">
@@ -1462,302 +1462,302 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>65000</v>
+        <v>50336</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>40000</v>
+        <v>37752</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>130000</v>
+        <v>21780</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>16500</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>40530.11</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>58500</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>12661.99</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>90000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>36179</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2500</v>
+        <v>80022.67999999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>24255</v>
+        <v>43647.8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>23100</v>
+        <v>31601.94</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>28875</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>24997.48</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>55000</v>
+        <v>24774.75</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>83658.37</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>15000</v>
+        <v>21598.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>16500</v>
+        <v>24066.26</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>15000</v>
+        <v>21471.45</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15000</v>
+        <v>28875</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>65923.2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15508</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>18000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23100</v>
+        <v>18082.19</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>32196.27</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23121</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>16195.36</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>45000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>52000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>12661.99</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>18000</v>
+        <v>16218.18</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>16500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>22869</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>19800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>39325</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>26426.4</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>51978.89</v>
+        <v>48700.86</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>17600</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>145000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>78020.8</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>23528.27</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>22500</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>52000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>19334.21</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>39325</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>91719.13</v>
+        <v>21888.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>47800</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="266">
@@ -1767,47 +1767,47 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>110000</v>
+        <v>12661.64</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>35000</v>
+        <v>51978.91</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>19395.62</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>61303.11</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>15000</v>
+        <v>71003.55</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>17600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>80608.36</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="276">
@@ -1817,97 +1817,97 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>40000</v>
+        <v>44381.8</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>12661.99</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>58500</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>17000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>23000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>58500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>70000</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>203500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>39571.35</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>46956</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28875</v>
+        <v>15049.35</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>30500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>17600</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="296">
@@ -1917,22 +1917,22 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>49666.15</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>57216.24</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>31830.5</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>27300</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="301">
@@ -1942,32 +1942,32 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>19965</v>
+        <v>57668.11</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>15000</v>
+        <v>72220.45</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>31382.26</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>28994.23</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>58352.01</v>
+        <v>69662.63</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="308">
@@ -1977,262 +1977,262 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>60500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>12661.99</v>
+        <v>31713</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>80000</v>
+        <v>21575.36</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>25105.8</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>46956</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>31500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>26000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>16610.88</v>
+        <v>18523.08</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>58500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>35000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>15000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>15972</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>52000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>26250</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>58500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>46956</v>
+        <v>44012.46</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>47819.2</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>15000</v>
+        <v>23453.56</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>20835.43</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>17000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>25000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>35000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>12661.99</v>
+        <v>44956.23</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>40000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>46927</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>40700</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>44012</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>24500</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>31460</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>17600</v>
+        <v>59748.51</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>35000</v>
+        <v>56676.55</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>16610.88</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>16500</v>
+        <v>49491</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>50000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>125000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>17000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>15000</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>17600</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>60500</v>
+        <v>31382.26</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="361">
@@ -2242,217 +2242,217 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>17600</v>
+        <v>147862.21</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>17708.32</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>45000</v>
+        <v>51978.91</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>15000</v>
+        <v>16273.91</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>45500</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>8049.84</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>22500</v>
+        <v>30250</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>203500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>16273.91</v>
+        <v>20067.43</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>17260.28</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>38000</v>
+        <v>37038.62</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>30500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>70400</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>22500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>15000</v>
+        <v>49883.2</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>65824.78999999999</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>30000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>61303.13</v>
+        <v>18107.6</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>26250</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>40000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>58500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>52000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>43647.8</v>
+        <v>21780</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>12000</v>
+        <v>69662.63</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>12661.99</v>
+        <v>73120.31</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>65516.52</v>
+        <v>31340.06</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>15000</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>36300</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>31340.06</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>56515.26</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>17600</v>
+        <v>8049.84</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>54398.5</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>17600</v>
+        <v>133610</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>36300</v>
+        <v>57216.22</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>12661.99</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="405">
@@ -2462,47 +2462,47 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>30000</v>
+        <v>17303</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>22000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>8049.94</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>44397.33</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>58500</v>
+        <v>44831.22</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>17600</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>25340.46</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="415">
@@ -2512,57 +2512,57 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>16500</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>41500</v>
+        <v>39543.28</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>15000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>17600</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>45000</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>12661.99</v>
+        <v>30886.7</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>17600</v>
+        <v>22580.43</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>60000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>15000</v>
+        <v>27308.97</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>28990</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>30000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="427">
@@ -2572,402 +2572,402 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>15000</v>
+        <v>81075.99000000001</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>203500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>58500</v>
+        <v>77216.73</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>54411.3</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>15000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>25340</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>30500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>45500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>17303</v>
+        <v>48752</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>25000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>15000</v>
+        <v>27063.62</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>38426.85</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>65018.43</v>
+        <v>24378.35</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>17600</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>42000</v>
+        <v>13108.43</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>50336</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>40530.1</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>75021.27</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>15000</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>15000</v>
+        <v>67500</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>15000</v>
+        <v>31713</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>65018.43</v>
+        <v>74245.60000000001</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>87247.5</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>29400</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>85000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>57216.2</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>8045</v>
+        <v>64400</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>13500</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>25000</v>
+        <v>84347.85000000001</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>30000</v>
+        <v>17510.64</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>48898.24</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>15000</v>
+        <v>25340.46</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>35000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>35000</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>140000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>18000</v>
+        <v>36423.73</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>15000</v>
+        <v>33410</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>66468.3</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>95000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>65000</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>12661.64</v>
+        <v>46927</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>19918.37</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>15417</v>
+        <v>29521.66</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>39325</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>17806</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>40000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>38000</v>
+        <v>25340.46</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>41226.9</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>22347</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>17600</v>
+        <v>22034</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>15000</v>
+        <v>16230.56</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>28912.57</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>58422.57</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>31460</v>
+        <v>35856.75</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>31500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>27951</v>
+        <v>76111.61</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>22034</v>
+        <v>55986</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>15000</v>
+        <v>39913.01</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>55000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>28875</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="508">
@@ -2977,17 +2977,17 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>35900</v>
+        <v>18192.26</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>15972</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="512">
@@ -2997,47 +2997,47 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>8045</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>110000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>21966.95</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>15000</v>
+        <v>29389.76</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>41226.9</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="522">
@@ -3047,17 +3047,17 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>39325</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>15000</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="526">
@@ -3067,27 +3067,27 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>17400</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>43647.8</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>17600</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>23000</v>
+        <v>81960.90999999999</v>
       </c>
     </row>
     <row r="532">
@@ -3097,62 +3097,62 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>17600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>12661.64</v>
+        <v>45952.5</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>18523.08</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>46017.56</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>75000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>180000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>39325</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>16500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="545">
@@ -3162,77 +3162,77 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>15000</v>
+        <v>84676.55</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>30500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>24774.75</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>29605.92</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>15000</v>
+        <v>37752</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>26000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>15000</v>
+        <v>67219.03999999999</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>15572</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>51289.87</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>19800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="561">
@@ -3242,127 +3242,127 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>36500</v>
+        <v>48448.4</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>17600</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>35000</v>
+        <v>54963.23</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>34212.75</v>
+        <v>17708.32</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>82500</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>17600</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>50336</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>15000</v>
+        <v>21843.08</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>44398.2</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>44830.5</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>20000</v>
+        <v>19918.37</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>203500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>68209.31</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>30000</v>
+        <v>26480</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>8045</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>22500</v>
+        <v>54015.3</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>18000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>100000</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>44170.05</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>65400</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>26000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="587">
@@ -3372,417 +3372,417 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>16000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>57216.21</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>57216.24</v>
+        <v>42286.6</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>21967.59</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>33422.03</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>34993.51</v>
+        <v>18082.16</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>65018.43</v>
+        <v>41843.02</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>15000</v>
+        <v>57215.6</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>100000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>17000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>23123.1</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>15416.83</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>38000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>46765.5</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>60000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>58500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>40000</v>
+        <v>47819.2</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>15000</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>17600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>15000</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>15000</v>
+        <v>44831.8</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>12661.99</v>
+        <v>26215.34</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>25000</v>
+        <v>52499.54</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>19800</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>44956.23</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>22880</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>57216.2</v>
+        <v>21780</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>34788</v>
+        <v>109303.55</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>23123.1</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>16610.88</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>17600</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>58500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>22000</v>
+        <v>44830.5</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>15416.83</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>15972</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>57216.2</v>
+        <v>54454.4</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>42000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>40000</v>
+        <v>87502.13</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>58500</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>55675.28</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>28350</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>15000</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>15000</v>
+        <v>44397.33</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>17600</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>56628</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>64401</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>65000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>17600</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>30000</v>
+        <v>21525</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>42000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>25000</v>
+        <v>43789.2</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>16500</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>15000</v>
+        <v>35900</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>15000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>16500</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>23000</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>15972</v>
+        <v>24997.48</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>12661.99</v>
+        <v>28832.85</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>58500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>26250</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>25072</v>
+        <v>21074.74</v>
       </c>
     </row>
     <row r="671">
@@ -3792,222 +3792,222 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>29358.12</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>17600</v>
+        <v>50740.8</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>21074.74</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>15000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>66000</v>
+        <v>44098.68</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>12661.99</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>15000</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>52000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>17600</v>
+        <v>23783.76</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>16500</v>
+        <v>8049.84</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>39325</v>
+        <v>71908.44</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>12661.99</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>39600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>40000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>17600</v>
+        <v>12661.64</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>45000</v>
+        <v>31382.26</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>86700.76000000001</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>58500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>15000</v>
+        <v>65018.43</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>35000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>11000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>11000</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>33000</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>17303</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>44892.9</v>
+        <v>22583.17</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>16500</v>
+        <v>3327.5</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>60000</v>
+        <v>29168.32</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>15000</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>16009.82</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>84676.55</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>81075.99000000001</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>15000</v>
+        <v>26426.4</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>31340.06</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="716">
@@ -4017,42 +4017,42 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>17600</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>23123.1</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>34320</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>55055</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>15000</v>
+        <v>26427</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>49883.2</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>30500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="725">
@@ -4062,52 +4062,52 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>26427</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>42567.23</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>19965</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>15000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>49000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>17600</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>24774.75</v>
+        <v>39571.35</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>65000</v>
+        <v>170500</v>
       </c>
     </row>
     <row r="736">
@@ -4117,52 +4117,52 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>21780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>17000</v>
+        <v>47190</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>22500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>69662.63</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>130000</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>40000</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="747">
@@ -4172,27 +4172,27 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>58500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>22500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>38000</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>12661.99</v>
+        <v>52468.32</v>
       </c>
     </row>
     <row r="753">
@@ -4202,32 +4202,32 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>42000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>25000</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>12661.64</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>46384</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>80000</v>
+        <v>24774.75</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="760">
@@ -4237,27 +4237,27 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>15972</v>
+        <v>20793.01</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>65400</v>
+        <v>58251.7</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>58500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>20547.93</v>
+        <v>59879.94</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="766">
@@ -4267,192 +4267,192 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>71500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>57216.2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>16800</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>25000</v>
+        <v>69662.63</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>16500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>16500</v>
+        <v>31382.26</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>23783.76</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>25000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>23000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>35000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>25000</v>
+        <v>12661.64</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>120000</v>
+        <v>77379.09</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>17600</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>50000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>42487.9</v>
+        <v>94895.48</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>21543.26</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>17600</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>26000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>15000</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>28875</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>17600</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>11000</v>
+        <v>21580</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>46956</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>16500</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>26191.19</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>22500</v>
+        <v>40530</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>25000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>17600</v>
+        <v>83334.27</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>110000</v>
+        <v>68970</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>110000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="805">
@@ -4462,17 +4462,17 @@
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>39571.35</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>17600</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>50000</v>
+        <v>28545.98</v>
       </c>
     </row>
     <row r="809">
@@ -4482,252 +4482,252 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>50336</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>23100</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>52000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>17600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>22000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>15000</v>
+        <v>17806</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>15000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>15000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>55000</v>
+        <v>42286.6</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>80000</v>
+        <v>41226.9</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>69700</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>15000</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>64401.85</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>40767.53</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>15000</v>
+        <v>30405.05</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>57216.2</v>
+        <v>31644.84</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>28528.5</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>25000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>26352</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>145000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>90000</v>
+        <v>18878.65</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>25000</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>16500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>203500</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>17600</v>
+        <v>26426.4</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>50000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>18687</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>76000</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>26426.4</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>22500</v>
+        <v>28875</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>17600</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>30000</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>57216.2</v>
+        <v>65018.43</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>25740</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>42350</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>17303</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>58500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>15000</v>
+        <v>35865.45</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>15000</v>
+        <v>144885.18</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>39543.28</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>50000</v>
+        <v>67999.95</v>
       </c>
     </row>
     <row r="860">
@@ -4737,232 +4737,232 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>41226.9</v>
+        <v>37752</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>40000</v>
+        <v>16610.88</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>41845</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>51978.91</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>66309.52</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>26250</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>31601.94</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>50336</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>15000</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>22580.43</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>55000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>39571.35</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>11000</v>
+        <v>80379.96000000001</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>133610</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>35077.07</v>
+        <v>50336</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>79572.09000000001</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>55000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>50336</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>18975</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>17600</v>
+        <v>35865.45</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>16500</v>
+        <v>58281.41</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>33211.6</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>80022.67999999999</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>52000</v>
+        <v>25423.25</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>15000</v>
+        <v>36385</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>15000</v>
+        <v>15417</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>22050</v>
+        <v>48898.24</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>25423.25</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>37162.02</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>12661.64</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>26000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>16195.36</v>
+        <v>36179</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>42000</v>
+        <v>41226.9</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>80000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>203500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>12661.99</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>74712.31999999999</v>
+        <v>21966.95</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>44012.46</v>
+        <v>53613.17</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>96075.99000000001</v>
+        <v>69662.63</v>
       </c>
     </row>
     <row r="907">
@@ -4972,37 +4972,37 @@
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>30500</v>
+        <v>33422.03</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>31500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>15000</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>38000</v>
+        <v>49746.13</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>16500</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>30000</v>
+        <v>15508</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>35000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="915">
@@ -5012,17 +5012,17 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>40530</v>
+        <v>57216.19</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>38500</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="919">
@@ -5032,47 +5032,47 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>18082.16</v>
+        <v>20160.21</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>12661.99</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>22500</v>
+        <v>69662.63</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>16610.88</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>53222.81</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>130000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>35000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="929">
@@ -5082,342 +5082,342 @@
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>19000</v>
+        <v>27951</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>51832.43</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>39500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>58500</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>80000</v>
+        <v>40268.8</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>25000</v>
+        <v>15416.83</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>15000</v>
+        <v>51122.5</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>19965</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>42350</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>40268.8</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>26250</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>28350</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>50000</v>
+        <v>43647.8</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>77000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>24997.47</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>31500</v>
+        <v>3039.04</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>31500</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>12661.99</v>
+        <v>40452.42</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>58500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>15000</v>
+        <v>51832.43</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>47262.97</v>
+        <v>40530</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>19500</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>81960.90999999999</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>20160.21</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>52000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>37038.62</v>
+        <v>34320</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>17600</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>17303</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>69212</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>21398.62</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>18000</v>
+        <v>40425</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>38000</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>4235</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>22880</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>25000</v>
+        <v>25740</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>40425</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>36107.03</v>
+        <v>23123.1</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>84348.5</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>17600</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>31122</v>
+        <v>16840.82</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>17600</v>
+        <v>16195.36</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>51978.91</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>15000</v>
+        <v>72020.42999999999</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>110000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>26000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>40530.1</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>50000</v>
+        <v>23123.1</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>52000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>22500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>22500</v>
+        <v>31106.25</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>15000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>23000</v>
+        <v>56628</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>31106.25</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>25000</v>
+        <v>69662.63</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>20000</v>
+        <v>78020.8</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>42286.6</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="998">
@@ -5427,207 +5427,207 @@
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>70000</v>
+        <v>17303</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>78020.8</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>39325</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>12661.64</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>69662.63</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>65000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>12661.99</v>
+        <v>46956</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>22500</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>48400</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>25000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>15000</v>
+        <v>74712.31999999999</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>12661.99</v>
+        <v>18687</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>47190</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>11000</v>
+        <v>58422.57</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>69662.63</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>15000</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>20763.6</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>17510.64</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>21780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>39571.35</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>12661.64</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>40452.42</v>
+        <v>68460</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>22792.77</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>75000</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>15972</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>15000</v>
+        <v>51417.77</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>16500</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>65000</v>
+        <v>34993.51</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>40000</v>
+        <v>30570.49</v>
       </c>
     </row>
     <row r="1040">
@@ -5637,92 +5637,92 @@
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>30570.49</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>99000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>47190</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>65000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>49098.91</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>30500</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>35000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>52499.54</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>23123.1</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>40530</v>
+        <v>24775</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>11000</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>23000</v>
+        <v>23123.1</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>69662.63</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>18150</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>16500</v>
+        <v>15572</v>
       </c>
     </row>
     <row r="1059">
@@ -5732,17 +5732,17 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>58500</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>18000</v>
+        <v>28875</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1063">
@@ -5752,52 +5752,52 @@
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>67500</v>
+        <v>65018.43</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>29521.66</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>17600</v>
+        <v>57216.24</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>67500</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>31382.26</v>
+        <v>37752</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>57216.17</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>26000</v>
+        <v>46017.56</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>45000</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="1074">
@@ -5807,92 +5807,92 @@
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>26250</v>
+        <v>65018.43</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>15000</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>25000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>35000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>130000</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>57216.2</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>15000</v>
+        <v>15972</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>12661.99</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>35000</v>
+        <v>60851.98</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>58500</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>17600</v>
+        <v>28875</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1093">
@@ -5902,32 +5902,32 @@
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>25000</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>49883.2</v>
+        <v>46566.81</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>120000</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>22736.33</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="1100">
@@ -5937,232 +5937,232 @@
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>20820</v>
+        <v>73552.71000000001</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>17600</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>44886.16</v>
+        <v>35235.2</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>58500</v>
+        <v>38262.91</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>56676.55</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>38262.91</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>21780</v>
+        <v>40530.1</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>39325</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>25000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>40530.1</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>58500</v>
+        <v>61303.1</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>15000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>52000</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>165000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>22000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>15000</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>12661.99</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>12661.99</v>
+        <v>18082.19</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>22500</v>
+        <v>62961.6</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>96075.99000000001</v>
+        <v>46946</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>28491</v>
+        <v>63474.37</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>75717.33</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>30000</v>
+        <v>24396</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>24396</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>25000</v>
+        <v>49883.2</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>60000</v>
+        <v>57216.2</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>15000</v>
+        <v>55055</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>15000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>31500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>22205</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>19500</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>15000</v>
+        <v>48400</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>36258.07</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="1147">
@@ -6172,67 +6172,67 @@
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>30405.05</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>15000</v>
+        <v>33422.03</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>46566.81</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>27000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>65000</v>
+        <v>18107.6</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>55000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>58500</v>
+        <v>26426.4</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>67311.44</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>27838.6</v>
+        <v>12661.64</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>52000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="1161">
@@ -6242,7 +6242,7 @@
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1163">
@@ -6252,62 +6252,62 @@
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>33880</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>26000</v>
+        <v>12661.99</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>72770.46000000001</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>22583.17</v>
+        <v>31122</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>20000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>12661.64</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>100000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>51122.5</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1176">
@@ -6317,37 +6317,37 @@
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>15000</v>
+        <v>25740</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>15000</v>
+        <v>26352</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>20000</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>24066.26</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>57589.42</v>
+        <v>17260.28</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>19800</v>
+        <v>24255</v>
       </c>
     </row>
     <row r="1184">
@@ -6357,97 +6357,97 @@
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>31460</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>25000</v>
+        <v>34951.25999999999</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>12661.99</v>
+        <v>49098.91</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>17600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>72600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>30800</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>15000</v>
+        <v>147862.21</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>15972</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>17600</v>
+        <v>25740</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>30000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>17600</v>
+        <v>35865.45</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>21876.9</v>
+        <v>23121</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>35865.45</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>19800</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>15000</v>
+        <v>28875</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1204">
@@ -6457,112 +6457,112 @@
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>31500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>15000</v>
+        <v>17078.88</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>25000</v>
+        <v>24024</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>8049.84</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>24024</v>
+        <v>31340.06</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>57216.2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>39325</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>25000</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>52000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>18150</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>71780.94</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>48000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>15000</v>
+        <v>24774.75</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>24774.75</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>65000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>16500</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>16500</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>70400</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>137000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1227">
@@ -6572,102 +6572,102 @@
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>51417.77</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>15000</v>
+        <v>67311.44</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>17600</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>35235.2</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>17600</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>130000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>15000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>19800</v>
+        <v>29605.92</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>90410.48</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>45223.75</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>23453.56</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>56763.2</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>25000</v>
+        <v>57216.24</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>15000</v>
+        <v>62920</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>39325</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>62920</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
     </row>
   </sheetData>
